--- a/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>66,18%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>277,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,83%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,19; 3,77</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 10,86</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 5,79</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-73,09; 726,24</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,06; 1024,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 241,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>310,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>218,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,5%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 6,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 8,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,6; 7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 9,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,7; 934,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,71; 668,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,6; 427,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,78; 256,85</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>233,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>571,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,27; 2,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 2,93</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 6,56</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 8,23</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,75; 442,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,22; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,93; 187,54</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>223,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>304,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 6,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,03; 10,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 7,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,82; 981,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,59; 556,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>99,65; 889,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; 175,4</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>585,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,88%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 7,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,78; 20,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 9,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,77; 10,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,64; 951,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>158,65; 1843,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,36; 539,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,41; 469,14</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>395,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,23%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 3,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 6,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 11,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,77; 11,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,12; 993,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,65; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,92; 506,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,84; 152,4</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,07%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,23%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 3,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 6,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 8,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 288,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,86; 474,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 174,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,52; 187,54</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>399,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,29%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 4,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,45; 7,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 6,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 8,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 161,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,27; 330,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>132,27; 1110,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,94; 281,78</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,03%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,58%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 3,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 5,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 5,94</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 6,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,81; 182,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,29; 316,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>122,72; 266,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,41; 135,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 7,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,79</t>
+          <t>0,34; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,77; 603,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 241,01</t>
+          <t>5,26; 263,06</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>123,5%</t>
+          <t>129,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 9,09</t>
+          <t>3,18; 9,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,78; 256,85</t>
+          <t>48,91; 270,85</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>83,11%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,23</t>
+          <t>1,25; 8,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 187,54</t>
+          <t>15,68; 192,33</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>223,78%</t>
+          <t>287,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>19,07%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,96</t>
+          <t>2,6; 8,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 7,01</t>
+          <t>-3,51; 5,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,59; 556,92</t>
+          <t>68,83; 882,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 175,4</t>
+          <t>-40,83; 122,8</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>187,88%</t>
+          <t>190,68%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 10,38</t>
+          <t>3,87; 10,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,41; 469,14</t>
+          <t>59,06; 481,67</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>79,52%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,37</t>
+          <t>3,01; 11,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,84; 152,4</t>
+          <t>24,56; 156,12</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 8,59</t>
+          <t>-2,02; 8,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,52; 187,54</t>
+          <t>-25,04; 171,67</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>135,29%</t>
+          <t>198,51%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,16</t>
+          <t>3,62; 9,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60,94; 281,78</t>
+          <t>81,14; 621,9</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>102,84%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,48</t>
+          <t>3,21; 6,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>64,41; 135,0</t>
+          <t>61,31; 154,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 3,77</t>
+          <t>-1,27; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 7,39</t>
+          <t>0,25; 6,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 10,86</t>
+          <t>2,81; 11,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,7</t>
+          <t>0,41; 6,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,09; 726,24</t>
+          <t>-75,86; 768,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 603,14</t>
+          <t>-13,32; 636,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,06; 1024,45</t>
+          <t>47,7; 1016,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 263,06</t>
+          <t>1,51; 280,98</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,7</t>
+          <t>2,39; 6,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 8,4</t>
+          <t>2,61; 8,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,15</t>
+          <t>1,85; 7,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,1</t>
+          <t>3,13; 9,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,7; 934,7</t>
+          <t>87,34; 1079,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,71; 668,38</t>
+          <t>55,47; 689,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,6; 427,33</t>
+          <t>42,06; 435,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,91; 270,85</t>
+          <t>48,6; 275,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,0</t>
+          <t>-0,28; 2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,93</t>
+          <t>-1,31; 2,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,56</t>
+          <t>1,58; 6,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 8,16</t>
+          <t>1,04; 8,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,75; 442,08</t>
+          <t>-64,2; 406,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,22; —</t>
+          <t>33,84; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 192,33</t>
+          <t>10,01; 178,45</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,09</t>
+          <t>-0,3; 3,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,46</t>
+          <t>2,41; 8,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,9</t>
+          <t>3,88; 10,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,32</t>
+          <t>-3,62; 5,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 981,59</t>
+          <t>-30,59; 1103,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,83; 882,93</t>
+          <t>64,65; 935,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65; 889,65</t>
+          <t>102,7; 765,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 122,8</t>
+          <t>-41,45; 116,95</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,4</t>
+          <t>-0,01; 7,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,78; 20,65</t>
+          <t>9,9; 21,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 9,77</t>
+          <t>1,16; 10,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 10,47</t>
+          <t>3,76; 10,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 951,96</t>
+          <t>-12,14; 693,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>158,65; 1843,86</t>
+          <t>172,66; 2084,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 539,64</t>
+          <t>3,1; 532,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,06; 481,67</t>
+          <t>64,1; 459,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,73</t>
+          <t>-0,43; 3,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,11</t>
+          <t>0,6; 6,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,65</t>
+          <t>2,9; 11,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 11,52</t>
+          <t>3,19; 11,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 993,05</t>
+          <t>-56,3; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,65; —</t>
+          <t>-19,14; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,92; 506,89</t>
+          <t>42,32; 518,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,56; 156,12</t>
+          <t>28,04; 160,72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,72</t>
+          <t>-0,06; 3,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,07</t>
+          <t>-0,04; 2,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,21</t>
+          <t>0,38; 6,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,02</t>
+          <t>-2,87; 8,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 288,18</t>
+          <t>-12,13; 270,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 474,13</t>
+          <t>-15,8; 507,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,96; 174,64</t>
+          <t>6,06; 158,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 171,67</t>
+          <t>-36,19; 173,28</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,63</t>
+          <t>-0,01; 4,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 7,14</t>
+          <t>2,3; 6,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,61; 6,47</t>
+          <t>2,47; 6,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 9,29</t>
+          <t>3,67; 9,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,57; 161,42</t>
+          <t>-1,44; 152,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>54,27; 330,48</t>
+          <t>54,03; 330,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>132,27; 1110,34</t>
+          <t>125,2; 994,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>81,14; 621,9</t>
+          <t>83,4; 549,31</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,04</t>
+          <t>1,33; 3,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,19</t>
+          <t>3,19; 5,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,94</t>
+          <t>3,81; 5,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,46</t>
+          <t>3,35; 6,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>59,81; 182,67</t>
+          <t>58,98; 192,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>127,29; 316,8</t>
+          <t>124,9; 305,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>122,72; 266,97</t>
+          <t>123,51; 268,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>61,31; 154,72</t>
+          <t>62,99; 158,24</t>
         </is>
       </c>
     </row>
